--- a/classfiers/bloated/knn/smote/bloated-knn-smote-results.xlsx
+++ b/classfiers/bloated/knn/smote/bloated-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.8185185185185185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9681818181818181</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8452380952380951</v>
+        <v>0.9002036659877801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8972520661157024</v>
+        <v>0.9592760180995474</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9422222222222222</v>
+        <v>0.9606986899563319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9636363636363636</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9528089887640449</v>
+        <v>0.9799554565701559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9915909090909092</v>
+        <v>0.9909502262443439</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9508928571428571</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9681818181818181</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98125</v>
+        <v>0.9773755656108597</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9039301310043668</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9452054794520548</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9241071428571428</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9847654628476546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9952153110047847</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9454545454545454</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.994914902449149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9084521042748461</v>
+        <v>0.9463196321711604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.95813200498132</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9302621312031423</v>
+        <v>0.9711537757310994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9699546681006831</v>
+        <v>0.9855203619909503</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/knn/smote/bloated-knn-smote-results.xlsx
+++ b/classfiers/bloated/knn/smote/bloated-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8185185185185185</v>
+        <v>0.8204081632653061</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9002036659877801</v>
+        <v>0.9013452914798206</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9592760180995474</v>
+        <v>0.9577114427860697</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9606986899563319</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9799554565701559</v>
+        <v>0.99009900990099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9909502262443439</v>
+        <v>0.990049751243781</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9478672985781991</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9732360097323601</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9773755656108597</v>
+        <v>0.9776119402985075</v>
       </c>
     </row>
     <row r="5">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9463196321711604</v>
+        <v>0.94973352374125</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9711537757310994</v>
+        <v>0.9729360622226342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9855203619909503</v>
+        <v>0.9850746268656717</v>
       </c>
     </row>
   </sheetData>
